--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/T_Giredr_Data.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/T_Giredr_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Mu</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>bw</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Muv</t>
   </si>
 </sst>
 </file>
@@ -518,10 +524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +535,7 @@
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +572,14 @@
       <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -581,16 +593,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
         <v>18</v>
       </c>
       <c r="H2" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -604,8 +616,14 @@
       <c r="L2" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="1">
+        <v>711.59</v>
+      </c>
+      <c r="N2" s="1">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -619,16 +637,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1">
         <v>18</v>
       </c>
       <c r="H3" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
@@ -642,8 +660,14 @@
       <c r="L3" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1">
+        <v>711.59</v>
+      </c>
+      <c r="N3" s="1">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1500</v>
       </c>
@@ -657,16 +681,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1">
         <v>18</v>
       </c>
       <c r="H4" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -680,8 +704,14 @@
       <c r="L4" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>711.59</v>
+      </c>
+      <c r="N4" s="1">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -695,16 +725,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
         <v>18</v>
       </c>
       <c r="H5" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -718,8 +748,14 @@
       <c r="L5" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <v>711.59</v>
+      </c>
+      <c r="N5" s="1">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2500</v>
       </c>
@@ -733,16 +769,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <v>18</v>
       </c>
       <c r="H6" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -755,6 +791,12 @@
       </c>
       <c r="L6" s="1">
         <v>252</v>
+      </c>
+      <c r="M6" s="1">
+        <v>711.59</v>
+      </c>
+      <c r="N6" s="1">
+        <v>203.4</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/T_Giredr_Data.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/T_Giredr_Data.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/T_Giredr_Data.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/T_Giredr_Data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Basic_data" sheetId="2" r:id="rId2"/>
     <sheet name="Parameter" sheetId="3" r:id="rId3"/>
+    <sheet name="Moment_of_Inertia" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Mu</t>
   </si>
@@ -117,6 +118,57 @@
   </si>
   <si>
     <t>Muv</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>yc</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>Ultimate Shear Force at Critical Location</t>
+  </si>
+  <si>
+    <t>Moment at the citical location of Shear Force</t>
+  </si>
+  <si>
+    <t>Kip</t>
+  </si>
+  <si>
+    <t>Kip-ft</t>
+  </si>
+  <si>
+    <t>db_main</t>
+  </si>
+  <si>
+    <t>db_shear</t>
   </si>
 </sst>
 </file>
@@ -167,13 +219,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,18 +579,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,24 +619,27 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>500</v>
+        <v>3482</v>
       </c>
       <c r="B2" s="1">
         <v>400</v>
@@ -590,213 +648,182 @@
         <v>60</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1">
         <v>18</v>
       </c>
       <c r="H2" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>16</v>
       </c>
       <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
         <v>0.9</v>
       </c>
-      <c r="L2" s="1">
-        <v>252</v>
-      </c>
       <c r="M2" s="1">
-        <v>711.59</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1">
-        <v>203.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3482</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1000</v>
+        <v>3482</v>
       </c>
       <c r="B3" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
         <v>18</v>
       </c>
       <c r="H3" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.9</v>
       </c>
-      <c r="L3" s="1">
-        <v>252</v>
-      </c>
       <c r="M3" s="1">
-        <v>711.59</v>
+        <v>18</v>
       </c>
       <c r="N3" s="1">
-        <v>203.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1500</v>
+        <v>3482</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="C4" s="1">
         <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1">
         <v>18</v>
       </c>
       <c r="H4" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.9</v>
       </c>
-      <c r="L4" s="1">
-        <v>252</v>
-      </c>
       <c r="M4" s="1">
-        <v>711.59</v>
+        <v>18</v>
       </c>
       <c r="N4" s="1">
-        <v>203.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2000</v>
+        <v>3482</v>
       </c>
       <c r="B5" s="1">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1">
         <v>60</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1">
         <v>18</v>
       </c>
       <c r="H5" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.9</v>
       </c>
-      <c r="L5" s="1">
-        <v>252</v>
-      </c>
       <c r="M5" s="1">
-        <v>711.59</v>
+        <v>18</v>
       </c>
       <c r="N5" s="1">
-        <v>203.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L6" s="1">
-        <v>252</v>
-      </c>
-      <c r="M6" s="1">
-        <v>711.59</v>
-      </c>
-      <c r="N6" s="1">
-        <v>203.4</v>
+        <v>226</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3482</v>
       </c>
     </row>
   </sheetData>
@@ -806,10 +833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,6 +955,174 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <f>B3-B2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <f>B1*B2</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <f>B3-(B2/2)</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f>B6*B4</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <f>B6/2</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <f>(B7*B8+B9*B10)/(B7+B9)</f>
+        <v>31.394736842105264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <f>(B1*B2^3)/12</f>
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <f>B8-B11</f>
+        <v>8.1052631578947363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <f>(B4*B6^3)/12</f>
+        <v>64312.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <f>B10-B11</f>
+        <v>-13.894736842105264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <f>B12+B14+B7*(B13*B13)+B9*(B15*B15)</f>
+        <v>264183.55263157899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
